--- a/Practica-2/Ex1/JacobiEstudiConvergencia.xlsx
+++ b/Practica-2/Ex1/JacobiEstudiConvergencia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Google Drive\UNI\CN\CN-Lab\Practica-2\Matlab\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Google Drive\UNI\CN\CN-Lab\Practica-2\Ex1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{83B9BF5E-3C5E-412D-8217-22AD29148F4B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{10C8B385-DE46-4373-B17D-6853B69FD07E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="10140" xr2:uid="{125B52E2-CEF1-4765-8E9C-4ACA731AB671}"/>
   </bookViews>
